--- a/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
+++ b/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buki_\work\Kamata-Cloud-Infrastructure\docs\ソフトウェア構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89190EC7-A705-4503-8D85-EE0F42636AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3FE58F-A7EC-4FFA-B0AC-BE9C02A522A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DEE218FA-BB7E-4FDB-BBB2-8D39184DC8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>OS層</t>
     <rPh sb="2" eb="3">
@@ -74,13 +74,6 @@
   <si>
     <t>UI層</t>
     <rPh sb="2" eb="3">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミドルウェア層</t>
-    <rPh sb="6" eb="7">
       <t>ソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -122,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,18 +138,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1599D94-926E-4D8F-8F5E-65FAB7E4132C}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,49 +540,53 @@
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="30.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
+++ b/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">アプリケーション層</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenStack</t>
+    <t xml:space="preserve">Proxmox VE 8.4.0</t>
   </si>
   <si>
     <t xml:space="preserve">KCI-Cloud API(Go)</t>
@@ -153,40 +153,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,62 +451,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="30.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
+++ b/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\ソフトウェア構成図\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE25E9B-1FE2-43B9-A226-4A81ED2E7E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="750" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,47 +27,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">OSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">開発領域</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI層</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCI-Cloud GUI(Nginx + Next.js)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCI-Cloud CLI(Python 3.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アプリケーション層</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proxmox VE 8.4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCI-Cloud API(Go)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZABBIX(監視ソフトウェア)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS層</t>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>開発領域</t>
+  </si>
+  <si>
+    <t>UI層</t>
+  </si>
+  <si>
+    <t>アプリケーション層</t>
+  </si>
+  <si>
+    <t>Proxmox VE 8.4.0</t>
+  </si>
+  <si>
+    <t>KCI-Cloud API(Go)</t>
+  </si>
+  <si>
+    <t>OS層</t>
   </si>
   <si>
     <t xml:space="preserve">Ubuntu Server 22.04 LTS </t>
+  </si>
+  <si>
+    <t>KCI-Cloud GUI
+(Nginx + Next.js)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KCI-Cloud CLI
+(Python 3.12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZABBIX
+(監視ソフトウェア)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,19 +79,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -113,96 +112,68 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -261,60 +232,142 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEF2D85-BA48-D249-7F79-FDFC18F01A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="2143125"/>
+          <a:ext cx="6534150" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -346,7 +399,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -370,7 +423,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -430,95 +483,91 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.26"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="3"/>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C5:F5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
+++ b/docs/ソフトウェア構成図/ソフトウェア構成図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\ソフトウェア構成図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\ソフトウェア構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE25E9B-1FE2-43B9-A226-4A81ED2E7E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE23F215-5059-483E-AF88-F740560B3FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>OSS</t>
   </si>
@@ -42,27 +42,20 @@
     <t>Proxmox VE 8.4.0</t>
   </si>
   <si>
-    <t>KCI-Cloud API(Go)</t>
-  </si>
-  <si>
     <t>OS層</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubuntu Server 22.04 LTS </t>
-  </si>
-  <si>
-    <t>KCI-Cloud GUI
-(Nginx + Next.js)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KCI-Cloud CLI
-(Python 3.12)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ZABBIX
 (監視ソフトウェア)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KCI-Cloud
+(Nginx + Nuxt.js)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Debian bookworm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -111,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,39 +127,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,22 +301,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEF2D85-BA48-D249-7F79-FDFC18F01A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602D7DE5-BF61-ABCD-6126-24AFE9C60CE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -296,7 +339,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="647700" y="2143125"/>
+          <a:off x="933450" y="2038350"/>
           <a:ext cx="6534150" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,7 +541,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -510,60 +553,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B1" s="3"/>
+      <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="4"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
